--- a/database.xlsx
+++ b/database.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document\GameDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SillyGooseDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACA12855-E6BB-4860-9868-F050BED1E234}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9420" xr2:uid="{41B95668-EFE9-4970-871F-3DB907EF7636}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
   <si>
     <t>表名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -43,30 +42,238 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>db_user</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Uid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(11)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>手机号(用户唯一标识符)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT(11)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号映射值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_phone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(11)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_passwd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(18)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(45)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tGoose</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tUser</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT(11)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与tUser中同名列对应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>goose_ENY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹅民币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>goose_sun</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前太阳数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>goose_snow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前雪数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>goose_rain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前雨数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>goose_wind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前风数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>goose_star</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前星星数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>goose_devil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前恶数（别问我什么是恶）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>goose_map</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已获地图（这里采用映射方式，以2进制为单位）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>album_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT(11)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tAlbum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与tAlbum表中同名列对应，一个用户对应一个相册id，一个相册id对应多个pic_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>album_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相册id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tPic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic_url</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(140)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片url</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic_belong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片归属地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic_level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片获取难度</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -190,45 +397,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -536,17 +771,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7265299A-21B7-441A-9CE9-C562BDBEF087}">
-  <dimension ref="A1:H16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
-    <col min="4" max="5" width="18.375" customWidth="1"/>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="23.125" customWidth="1"/>
+    <col min="4" max="4" width="33.375" customWidth="1"/>
+    <col min="5" max="5" width="30.125" customWidth="1"/>
     <col min="8" max="8" width="0.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -554,15 +792,15 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
+      <c r="B1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -571,196 +809,555 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="8" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="7"/>
+      <c r="C26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
+  <mergeCells count="62">
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
     <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="v1.0.1" sheetId="1" r:id="rId1"/>
+    <sheet name="v2.1.1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="117">
   <si>
     <t>表名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -267,6 +268,230 @@
   </si>
   <si>
     <t>照片获取难度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT(11)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键 AUTO_INCREMENT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_passwd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT(11)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与tUser中同名列对应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前恶数（别问我什么是恶）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相册id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tPic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(140)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与tUser中同名列对应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sun_lasttime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT CURRENT_TIMESTAMP()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind_lasttime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>star_lasttime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT CURRENT_TIMESTAMP()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>云上次收集时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>goose_devil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic_belong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic_level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(32)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tGoose</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tCollectTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳上次收集时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨上次收集时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY_key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic_url</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键 AUTO_INCREMENT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹅民币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>goose_sun</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>goose_wind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>goose_star</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前星星数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>goose_map</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片url</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片归属地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片获取难度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风上次收集时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rain_lasttime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星上次收集时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>devil_lasttime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶上次收集时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloud_lasttime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreign_key reference tPic.pic_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreign_key reference tUser.user_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreign_key reference tUser.user_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreign_key reference tUser.user_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -387,12 +612,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -406,6 +634,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -415,19 +652,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -772,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -792,15 +1020,15 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="11"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -814,11 +1042,11 @@
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -827,16 +1055,16 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="3" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -845,14 +1073,14 @@
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -861,14 +1089,14 @@
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -877,280 +1105,328 @@
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
+      <c r="C14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
+      <c r="C15" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5"/>
+      <c r="C16" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
+      <c r="C17" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="5"/>
+        <v>43</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5"/>
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="5"/>
+      <c r="A21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="5"/>
+      <c r="A22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C26" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="6" t="s">
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="5"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
@@ -1159,207 +1435,889 @@
       <c r="B27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="5"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="5"/>
+      <c r="A28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="5"/>
+      <c r="A29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="11"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="8"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="5"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="5"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="5"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:H33"/>
+  <mergeCells count="58">
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="F26:H26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="F22:H22"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="F19:H19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F6:H6"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="F17:H17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F7:H7"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C11:E11"/>
     <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="8" max="8" width="15.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="12"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="9"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="11"/>
+      <c r="H35" s="12"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G39" s="5"/>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G41" s="5"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G42" s="5"/>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="77">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:H42"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>